--- a/Symphony/2021/July/05.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/July/05.07.2021/MC Bank Statement June-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -31,6 +31,30 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>8801715116767</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Toner for Printer</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,7 +674,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -945,6 +969,13 @@
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="44">
@@ -5924,12 +5955,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6139,7 +6170,9 @@
         <v>700</v>
       </c>
       <c r="C7" s="121"/>
-      <c r="D7" s="122"/>
+      <c r="D7" s="122">
+        <v>650</v>
+      </c>
       <c r="E7" s="122"/>
       <c r="F7" s="122"/>
       <c r="G7" s="122">
@@ -6158,7 +6191,7 @@
       <c r="P7" s="124"/>
       <c r="Q7" s="125">
         <f t="shared" si="0"/>
-        <v>1240</v>
+        <v>1890</v>
       </c>
       <c r="R7" s="126"/>
       <c r="S7" s="46"/>
@@ -6935,7 +6968,7 @@
       </c>
       <c r="D37" s="147">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E37" s="147">
         <f t="shared" si="1"/>
@@ -6987,7 +7020,7 @@
       </c>
       <c r="Q37" s="149">
         <f>SUM(Q6:Q36)</f>
-        <v>2120</v>
+        <v>2770</v>
       </c>
       <c r="S37" s="341" t="s">
         <v>70</v>
@@ -8993,11 +9026,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9012,11 +9040,17 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9024,7 +9058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
@@ -32110,7 +32144,7 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
